--- a/biology/Botanique/Mapania_sylvatica/Mapania_sylvatica.xlsx
+++ b/biology/Botanique/Mapania_sylvatica/Mapania_sylvatica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mapania sylvatica est une espèce herbacée de sous-bois appartenant à la famille des Cyperaceae, décrite par Jean Baptiste Christophe Fusée Aublet[2].
-Mapania sylvatica est l'espèce-type du genre Mapania[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mapania sylvatica est une espèce herbacée de sous-bois appartenant à la famille des Cyperaceae, décrite par Jean Baptiste Christophe Fusée Aublet.
+Mapania sylvatica est l'espèce-type du genre Mapania,.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce comporte les sous-espèces suivantes[3] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'espèce comporte les sous-espèces suivantes : 
 M. s. ssp. gabonica
 M. s. ssp. sylvatica</t>
         </is>
@@ -544,9 +558,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante :
 « MAPANIA ſylvatica. (Tabula 17.)
 Planta perennis. Radix lignoſi, fibroſa ; plures ſnudos, triangulares, bipedales, ad baſim ſquamulis ſeu foliolis oblongis, acutis, imbricatis, rufeſcentibus, obvolutos emittit. Flores numeroſi, terminales, congeſti, ſeſſiles, in fundo involucri ampliſſimi.
 Florebat Junio.
@@ -586,7 +602,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(sv) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en suédois intitulé « Mapania sylvatica » (voir la liste des auteurs).
 ↑ (en-US) « Mapania sylvatica Aubl. - synonyms », Tropicos, Saint Louis, Missouri, Missouri Botanical Garden (consulté le 27 février 2021)
